--- a/Andrew-annotations/ENTR_Q4_2009.xlsx
+++ b/Andrew-annotations/ENTR_Q4_2009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE968C5-D82B-44E0-AA35-0BB85DC2C677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876550EA-8721-43FE-A702-F063FA205D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:J36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -949,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -981,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1103,10 +1103,10 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1135,19 +1135,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -1272,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1295,16 +1295,16 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1327,13 +1327,13 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1391,10 +1391,10 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1423,13 +1423,13 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1455,13 +1455,13 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1551,10 +1551,10 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1583,10 +1583,10 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -1752,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -1781,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>2</v>
